--- a/resource/xlsx/월배당ETF_목록.xlsx
+++ b/resource/xlsx/월배당ETF_목록.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12,340원</t>
+          <t>12,205원</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15,820원</t>
+          <t>15,570원</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.26%</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107,505원</t>
+          <t>107,480원</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20,760원</t>
+          <t>20,500원</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.36%</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14,235원</t>
+          <t>14,240원</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82,040원</t>
+          <t>82,340원</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12,360원</t>
+          <t>12,435원</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14,640원</t>
+          <t>14,585원</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30,045원</t>
+          <t>30,360원</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14,370원</t>
+          <t>14,250원</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.32%</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13,770원</t>
+          <t>13,630원</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.43%</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9,800원</t>
+          <t>9,760원</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.69%</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12,957원</t>
+          <t>13,020원</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4,245원</t>
+          <t>4,257원</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>126,610원</t>
+          <t>126,905원</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90,960원</t>
+          <t>91,900원</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>103,735원</t>
+          <t>103,715원</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11,660원</t>
+          <t>11,625원</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>0.52%</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11,875원</t>
+          <t>11,865원</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14,905원</t>
+          <t>14,980원</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12,110원</t>
+          <t>12,245원</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12,050원</t>
+          <t>12,180원</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6,660원</t>
+          <t>6,665원</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16,300원</t>
+          <t>16,430원</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18,110원</t>
+          <t>18,270원</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>100,540원</t>
+          <t>100,860원</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>117,340원</t>
+          <t>117,360원</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11,080원</t>
+          <t>11,130원</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.40%</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10,095원</t>
+          <t>10,105원</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11,635원</t>
+          <t>11,725원</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16,980원</t>
+          <t>16,805원</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10,965원</t>
+          <t>11,085원</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>52,545원</t>
+          <t>52,550원</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11,230원</t>
+          <t>11,250원</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>44,495원</t>
+          <t>44,255원</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7,485원</t>
+          <t>7,545원</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.30%</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10,830원</t>
+          <t>10,930원</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>0.29%</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15,115원</t>
+          <t>15,235원</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9,930원</t>
+          <t>9,935원</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>48,035원</t>
+          <t>48,295원</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.41%</t>
+          <t>0.40%</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11,950원</t>
+          <t>12,085원</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10,775원</t>
+          <t>10,890원</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9,590원</t>
+          <t>9,690원</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10,660원</t>
+          <t>10,775원</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10,865원</t>
+          <t>10,905원</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>49,180원</t>
+          <t>49,695원</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12,335원</t>
+          <t>12,505원</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20,390원</t>
+          <t>20,100원</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10,915원</t>
+          <t>10,995원</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11,200원</t>
+          <t>11,235원</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11,080원</t>
+          <t>11,170원</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>63,732원</t>
+          <t>63,815원</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11,955원</t>
+          <t>11,925원</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8,685원</t>
+          <t>8,765원</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>1.03%</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,955원</t>
+          <t>8,035원</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8,790원</t>
+          <t>8,865원</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>1.64%</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13,755원</t>
+          <t>13,825원</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.80%</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8,720원</t>
+          <t>8,730원</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7,780원</t>
+          <t>7,835원</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>1.03%</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9,025원</t>
+          <t>8,905원</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9,550원</t>
+          <t>9,560원</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>1.47%</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,662원</t>
+          <t>4,675원</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8,570원</t>
+          <t>8,640원</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.25%</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>9,250원</t>
+          <t>9,345원</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10,895원</t>
+          <t>10,955원</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>1.23%</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10,050원</t>
+          <t>10,140원</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9,885원</t>
+          <t>9,980원</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1,023,190원</t>
+          <t>1,023,250원</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9,710원</t>
+          <t>9,735원</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8,400원</t>
+          <t>8,450원</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10,852원</t>
+          <t>10,945원</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.79%</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9,165원</t>
+          <t>9,260원</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11,265원</t>
+          <t>11,390원</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>1.13%</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>9,240원</t>
+          <t>9,325원</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8,695원</t>
+          <t>8,755원</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16,460원</t>
+          <t>16,280원</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9,915원</t>
+          <t>9,995원</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9,960원</t>
+          <t>9,980원</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>11,325원</t>
+          <t>11,190원</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>1.40%</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10,245원</t>
+          <t>10,350원</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9,942원</t>
+          <t>10,000원</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8,825원</t>
+          <t>8,915원</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>1.37%</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11,700원</t>
+          <t>11,885원</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.56%</t>
+          <t>1.54%</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10,170원</t>
+          <t>10,250원</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10,095원</t>
+          <t>10,215원</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10,485원</t>
+          <t>10,570원</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>10,085원</t>
+          <t>10,190원</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>9,625원</t>
+          <t>9,725원</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.57%</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>9,195원</t>
+          <t>9,270원</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>1.19%</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12,575원</t>
+          <t>12,525원</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12,685원</t>
+          <t>12,635원</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12,775원</t>
+          <t>12,690원</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12,550원</t>
+          <t>12,525원</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12,685원</t>
+          <t>12,635원</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12,680원</t>
+          <t>12,645원</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>50,090원</t>
+          <t>50,095원</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11,235원</t>
+          <t>11,240원</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10,020원</t>
+          <t>10,095원</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9,035원</t>
+          <t>9,040원</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>14,570원</t>
+          <t>14,350원</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9,535원</t>
+          <t>9,590원</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13,355원</t>
+          <t>13,150원</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.12%</t>
+          <t>1.13%</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1,001,635원</t>
+          <t>1,001,710원</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9,260원</t>
+          <t>9,355원</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>1.18%</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>8,790원</t>
+          <t>8,885원</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>8,900원</t>
+          <t>9,045원</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.24%</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10,265원</t>
+          <t>10,255원</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.20%</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10,295원</t>
+          <t>10,345원</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>8,880원</t>
+          <t>8,850원</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>9,895원</t>
+          <t>10,060원</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12,800원</t>
+          <t>12,655원</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>1.22%</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10,755원</t>
+          <t>10,745원</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.34%</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10,995원</t>
+          <t>11,140원</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.35%</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10,535원</t>
+          <t>10,570원</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>9,645원</t>
+          <t>9,655원</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10,330원</t>
+          <t>10,445원</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>13,950원</t>
+          <t>13,965원</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10,455원</t>
+          <t>10,550원</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10,710원</t>
+          <t>10,805원</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10,335원</t>
+          <t>10,385원</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>12,680원</t>
+          <t>12,550원</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10,120원</t>
+          <t>10,190원</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10,070원</t>
+          <t>10,140원</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
